--- a/AW by US Postal Codes.xlsx
+++ b/AW by US Postal Codes.xlsx
@@ -45,7 +45,7 @@
     <t>MostPopular_ProductCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">AdventureWorks Data Analysis only with US Territories </t>
+    <t xml:space="preserve">AdventureWorks Data Analysis with US Territories </t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
   <dimension ref="B3:F355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
